--- a/ConfigFileAndDictionaryDemo/Data/Config.xlsx
+++ b/ConfigFileAndDictionaryDemo/Data/Config.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
